--- a/documentation/ModeleDonnees.xlsx
+++ b/documentation/ModeleDonnees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\yann\teliwayDocker\web\firstFm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\yann\docker\myLastFm\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D522E3E5-684A-4D31-BB61-44FFA1723804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4022A-2B66-4042-965F-6EFA9FF98E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="5295" windowWidth="21660" windowHeight="15120" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15435" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
   <si>
     <t>Track</t>
   </si>
@@ -81,9 +81,6 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>ts</t>
-  </si>
-  <si>
     <t>idImageTrack</t>
   </si>
   <si>
@@ -91,6 +88,27 @@
   </si>
   <si>
     <t>ImageTrack</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>idImport</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>lastScrobble</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -506,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722538FA-B23F-49D8-B09F-FB432DCC9AF7}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,14 +537,14 @@
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
@@ -535,8 +553,13 @@
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,8 +578,14 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -578,8 +607,14 @@
       <c r="J3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -590,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -598,16 +633,43 @@
       <c r="J4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -618,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -629,20 +691,20 @@
         <v>15</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>9</v>
       </c>
@@ -653,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -664,14 +726,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,7 +741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -687,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -738,7 +800,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>

--- a/documentation/ModeleDonnees.xlsx
+++ b/documentation/ModeleDonnees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\yann\docker\myLastFm\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4022A-2B66-4042-965F-6EFA9FF98E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7077E4-BA91-4D8B-8572-28F911D98870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15435" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,27 +669,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>20</v>
       </c>

--- a/documentation/ModeleDonnees.xlsx
+++ b/documentation/ModeleDonnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\yann\docker\myLastFm\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7077E4-BA91-4D8B-8572-28F911D98870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9AC562-E6C1-4B51-AFBD-B49B15FEF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15435" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="16020" windowHeight="15435" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Track</t>
   </si>
@@ -81,15 +81,9 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>idImageTrack</t>
-  </si>
-  <si>
     <t>Scrobble</t>
   </si>
   <si>
-    <t>ImageTrack</t>
-  </si>
-  <si>
     <t>Import</t>
   </si>
   <si>
@@ -109,6 +103,27 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>listeners</t>
+  </si>
+  <si>
+    <t>bigInt</t>
+  </si>
+  <si>
+    <t>playcount</t>
+  </si>
+  <si>
+    <t>bioSummary</t>
+  </si>
+  <si>
+    <t>bioContent</t>
   </si>
 </sst>
 </file>
@@ -524,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722538FA-B23F-49D8-B09F-FB432DCC9AF7}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +559,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
@@ -554,7 +569,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
@@ -579,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -608,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -634,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
         <v>16</v>
@@ -651,19 +666,19 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>15</v>
@@ -692,40 +707,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -801,15 +787,56 @@
         <v>2</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/ModeleDonnees.xlsx
+++ b/documentation/ModeleDonnees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\yann\docker\myLastFm\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9AC562-E6C1-4B51-AFBD-B49B15FEF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF96397-649F-41E9-B40A-089EF7743804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="16020" windowHeight="15435" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
+    <workbookView xWindow="23715" yWindow="945" windowWidth="25035" windowHeight="19845" xr2:uid="{2ED3269A-5E17-452E-BC8D-B82D3CD96943}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="64">
   <si>
     <t>Track</t>
   </si>
@@ -124,6 +124,99 @@
   </si>
   <si>
     <t>bioContent</t>
+  </si>
+  <si>
+    <t>WidgetGrid</t>
+  </si>
+  <si>
+    <t>idWidgetGrid</t>
+  </si>
+  <si>
+    <t>wording</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>lastFmApiSessionKey</t>
+  </si>
+  <si>
+    <t>lastFmApiKey</t>
+  </si>
+  <si>
+    <t>lasFmApiSecret</t>
+  </si>
+  <si>
+    <t>lastFmUserName</t>
+  </si>
+  <si>
+    <t>defautGrid</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>idWidget</t>
+  </si>
+  <si>
+    <t>widgetGrid</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>positionX</t>
+  </si>
+  <si>
+    <t>positionY</t>
+  </si>
+  <si>
+    <t>fontColor</t>
+  </si>
+  <si>
+    <t>backgroundColor</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>typeWidget</t>
+  </si>
+  <si>
+    <t>subTypeWidget</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -539,304 +632,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722538FA-B23F-49D8-B09F-FB432DCC9AF7}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="5.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="I1" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
       <c r="M1" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C2"/>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C4"/>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+      <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="M18" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="M20" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="M22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
